--- a/data_year/zb/农业/农、林、牧、渔业总产值及指数.xlsx
+++ b/data_year/zb/农业/农、林、牧、渔业总产值及指数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,1084 +513,640 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13873.587631</v>
+        <v>35909.066184359</v>
       </c>
       <c r="C2" t="n">
-        <v>549.583583703119</v>
+        <v>823.624845448363</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4</v>
+        <v>104.2594595475</v>
       </c>
       <c r="E2" t="n">
-        <v>24915.768267</v>
+        <v>67763.1342742221</v>
       </c>
       <c r="F2" t="n">
-        <v>807.783734329821</v>
+        <v>1317.96717446402</v>
       </c>
       <c r="G2" t="n">
-        <v>103.6</v>
+        <v>104.3795692088</v>
       </c>
       <c r="H2" t="n">
-        <v>936.5244269999999</v>
+        <v>2575.0341446145</v>
       </c>
       <c r="I2" t="n">
-        <v>2808.4781678275</v>
+        <v>4647.72679542164</v>
       </c>
       <c r="J2" t="n">
-        <v>105.4</v>
+        <v>103.5441720265</v>
       </c>
       <c r="K2" t="n">
-        <v>2712.57498</v>
+        <v>6263.3705577147</v>
       </c>
       <c r="L2" t="n">
-        <v>14073.9898324962</v>
+        <v>23861.2602496849</v>
       </c>
       <c r="M2" t="n">
-        <v>106.5</v>
+        <v>105.4412916626</v>
       </c>
       <c r="N2" t="n">
-        <v>7393.081229</v>
+        <v>20461.0770138634</v>
       </c>
       <c r="O2" t="n">
-        <v>1811.38570299513</v>
+        <v>3204.87585242068</v>
       </c>
       <c r="P2" t="n">
-        <v>106.3</v>
+        <v>104.160198719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14462.793513238</v>
+        <v>40339.6228439432</v>
       </c>
       <c r="C3" t="n">
-        <v>569.400012704368</v>
+        <v>869.713187210453</v>
       </c>
       <c r="D3" t="n">
-        <v>103.6</v>
+        <v>105.5536057076</v>
       </c>
       <c r="E3" t="n">
-        <v>26179.647138247</v>
+        <v>78836.9774171036</v>
       </c>
       <c r="F3" t="n">
-        <v>842.024873684572</v>
+        <v>1376.14513448287</v>
       </c>
       <c r="G3" t="n">
-        <v>104.2</v>
+        <v>104.4129472774</v>
       </c>
       <c r="H3" t="n">
-        <v>938.753537995</v>
+        <v>3092.4388015974</v>
       </c>
       <c r="I3" t="n">
-        <v>2788.35024309155</v>
+        <v>4998.78701806787</v>
       </c>
       <c r="J3" t="n">
-        <v>99.283315606063</v>
+        <v>107.5533747593</v>
       </c>
       <c r="K3" t="n">
-        <v>2814.967716014</v>
+        <v>7337.3725208208</v>
       </c>
       <c r="L3" t="n">
-        <v>14622.3451392991</v>
+        <v>24866.510843058</v>
       </c>
       <c r="M3" t="n">
-        <v>103.9</v>
+        <v>104.1330689351</v>
       </c>
       <c r="N3" t="n">
-        <v>7963.132371</v>
+        <v>25194.1631377629</v>
       </c>
       <c r="O3" t="n">
-        <v>1924.81952320412</v>
+        <v>3260.98950622829</v>
       </c>
       <c r="P3" t="n">
-        <v>106.262267612106</v>
+        <v>101.7312885283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14931.5</v>
+        <v>44845.7211624986</v>
       </c>
       <c r="C4" t="n">
-        <v>591.618654780075</v>
+        <v>907.659707713774</v>
       </c>
       <c r="D4" t="n">
-        <v>103.902114783978</v>
+        <v>104.3375055819</v>
       </c>
       <c r="E4" t="n">
-        <v>27390.8</v>
+        <v>86342.15223565089</v>
       </c>
       <c r="F4" t="n">
-        <v>883.638288995802</v>
+        <v>1443.5486206702</v>
       </c>
       <c r="G4" t="n">
-        <v>104.942064850072</v>
+        <v>104.8948401069</v>
       </c>
       <c r="H4" t="n">
-        <v>1033.5</v>
+        <v>3406.9708595033</v>
       </c>
       <c r="I4" t="n">
-        <v>2985.59032145086</v>
+        <v>5335.33950210513</v>
       </c>
       <c r="J4" t="n">
-        <v>107.073719625</v>
+        <v>106.7326830053</v>
       </c>
       <c r="K4" t="n">
-        <v>2971.1</v>
+        <v>8403.914821108099</v>
       </c>
       <c r="L4" t="n">
-        <v>15517.9578369208</v>
+        <v>26128.734533005</v>
       </c>
       <c r="M4" t="n">
-        <v>106.124959362467</v>
+        <v>105.0487406758</v>
       </c>
       <c r="N4" t="n">
-        <v>8454.6</v>
+        <v>26491.2089136203</v>
       </c>
       <c r="O4" t="n">
-        <v>2040.54982852328</v>
+        <v>3432.00746639239</v>
       </c>
       <c r="P4" t="n">
-        <v>106.012527612278</v>
+        <v>105.2364195342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14870.1148072911</v>
+        <v>48943.9377789757</v>
       </c>
       <c r="C5" t="n">
-        <v>591.618654780075</v>
+        <v>947.218792352043</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5</v>
+        <v>104.3613621229</v>
       </c>
       <c r="E5" t="n">
-        <v>29691.8</v>
+        <v>93173.6998567531</v>
       </c>
       <c r="F5" t="n">
-        <v>918.9</v>
+        <v>1500.73893704516</v>
       </c>
       <c r="G5" t="n">
-        <v>104</v>
+        <v>103.9619260305</v>
       </c>
       <c r="H5" t="n">
-        <v>1239.92902264881</v>
+        <v>3847.4385215052</v>
       </c>
       <c r="I5" t="n">
-        <v>3194.58164395243</v>
+        <v>5727.72960297866</v>
       </c>
       <c r="J5" t="n">
-        <v>106.9</v>
+        <v>107.3545479293</v>
       </c>
       <c r="K5" t="n">
-        <v>3137.60554849125</v>
+        <v>9254.478650548001</v>
       </c>
       <c r="L5" t="n">
-        <v>16293.8557287668</v>
+        <v>27455.6443562406</v>
       </c>
       <c r="M5" t="n">
-        <v>105.3</v>
+        <v>105.0783547192</v>
       </c>
       <c r="N5" t="n">
-        <v>9538.8056448102</v>
+        <v>27572.3688554741</v>
       </c>
       <c r="O5" t="n">
-        <v>2183.3</v>
+        <v>3502.26592336328</v>
       </c>
       <c r="P5" t="n">
-        <v>107.3</v>
+        <v>102.0471533835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18138.3554488701</v>
+        <v>51851.1221601811</v>
       </c>
       <c r="C6" t="n">
-        <v>641.9</v>
+        <v>993.608673755368</v>
       </c>
       <c r="D6" t="n">
-        <v>108.495139814642</v>
+        <v>104.8894160447</v>
       </c>
       <c r="E6" t="n">
-        <v>36238.9897622507</v>
+        <v>97822.5134327064</v>
       </c>
       <c r="F6" t="n">
-        <v>987.8</v>
+        <v>1565.59036063015</v>
       </c>
       <c r="G6" t="n">
-        <v>107.454506321626</v>
+        <v>104.3238770402</v>
       </c>
       <c r="H6" t="n">
-        <v>1327.12491614172</v>
+        <v>4189.9817200735</v>
       </c>
       <c r="I6" t="n">
-        <v>3258.5</v>
+        <v>6094.70343250596</v>
       </c>
       <c r="J6" t="n">
-        <v>102.002274384446</v>
+        <v>106.4069684668</v>
       </c>
       <c r="K6" t="n">
-        <v>3605.60213711159</v>
+        <v>9877.5369605835</v>
       </c>
       <c r="L6" t="n">
-        <v>17271.5</v>
+        <v>28547.70102725</v>
       </c>
       <c r="M6" t="n">
-        <v>106.047875409373</v>
+        <v>103.9775306558</v>
       </c>
       <c r="N6" t="n">
-        <v>12173.8016296272</v>
+        <v>27963.3867736564</v>
       </c>
       <c r="O6" t="n">
-        <v>2340.5</v>
+        <v>3591.85054614156</v>
       </c>
       <c r="P6" t="n">
-        <v>107.194753427267</v>
+        <v>102.5579046463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19613.3723826152</v>
+        <v>54205.3353679747</v>
       </c>
       <c r="C7" t="n">
-        <v>668.2</v>
+        <v>1047.2047281377</v>
       </c>
       <c r="D7" t="n">
-        <v>104.1466625721</v>
+        <v>105.3882949725</v>
       </c>
       <c r="E7" t="n">
-        <v>39450.8873407089</v>
+        <v>101893.524993133</v>
       </c>
       <c r="F7" t="n">
-        <v>1044.1</v>
+        <v>1628.96584806297</v>
       </c>
       <c r="G7" t="n">
-        <v>105.6629155089</v>
+        <v>104.0480248874</v>
       </c>
       <c r="H7" t="n">
-        <v>1425.5398810088</v>
+        <v>4358.4466638654</v>
       </c>
       <c r="I7" t="n">
-        <v>3362.8</v>
+        <v>6466.46259211042</v>
       </c>
       <c r="J7" t="n">
-        <v>103.1873646911</v>
+        <v>106.0997087672</v>
       </c>
       <c r="K7" t="n">
-        <v>4016.1188951426</v>
+        <v>10339.0869281111</v>
       </c>
       <c r="L7" t="n">
-        <v>18394.1</v>
+        <v>29784.4145635802</v>
       </c>
       <c r="M7" t="n">
-        <v>106.5461628516</v>
+        <v>104.321971045</v>
       </c>
       <c r="N7" t="n">
-        <v>13310.783516942</v>
+        <v>28649.320296726</v>
       </c>
       <c r="O7" t="n">
-        <v>2523.1</v>
+        <v>3608.74054576763</v>
       </c>
       <c r="P7" t="n">
-        <v>107.8445236504</v>
+        <v>100.4655106777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21522.2757656768</v>
+        <v>55659.890664895</v>
       </c>
       <c r="C8" t="n">
-        <v>704.2</v>
+        <v>1091.46493180057</v>
       </c>
       <c r="D8" t="n">
-        <v>105.3916818267</v>
+        <v>104.2265091508</v>
       </c>
       <c r="E8" t="n">
-        <v>40810.8266140553</v>
+        <v>106478.728473906</v>
       </c>
       <c r="F8" t="n">
-        <v>1100.7</v>
+        <v>1686.77554787596</v>
       </c>
       <c r="G8" t="n">
-        <v>105.419391152</v>
+        <v>103.5488589206</v>
       </c>
       <c r="H8" t="n">
-        <v>1610.8110012941</v>
+        <v>4635.8976656582</v>
       </c>
       <c r="I8" t="n">
-        <v>3550.5</v>
+        <v>6994.80414242043</v>
       </c>
       <c r="J8" t="n">
-        <v>105.5811951383</v>
+        <v>108.170488003</v>
       </c>
       <c r="K8" t="n">
-        <v>3970.5249229998</v>
+        <v>10892.918356963</v>
       </c>
       <c r="L8" t="n">
-        <v>19496.5</v>
+        <v>30646.2872486935</v>
       </c>
       <c r="M8" t="n">
-        <v>105.9930840362</v>
+        <v>102.893703629</v>
       </c>
       <c r="N8" t="n">
-        <v>12083.8553467919</v>
+        <v>30461.1666349107</v>
       </c>
       <c r="O8" t="n">
-        <v>2649.3</v>
+        <v>3647.88600134251</v>
       </c>
       <c r="P8" t="n">
-        <v>105.0002500394</v>
+        <v>101.0847400936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24444.6796230905</v>
+        <v>58059.7579380087</v>
       </c>
       <c r="C9" t="n">
-        <v>730.478582244299</v>
+        <v>1142.33877275047</v>
       </c>
       <c r="D9" t="n">
-        <v>103.727683851</v>
+        <v>104.661060513</v>
       </c>
       <c r="E9" t="n">
-        <v>48651.7662607964</v>
+        <v>109331.720900485</v>
       </c>
       <c r="F9" t="n">
-        <v>1143.1381181129</v>
+        <v>1754.44971904071</v>
       </c>
       <c r="G9" t="n">
-        <v>103.8570798139</v>
+        <v>103.9758721022</v>
       </c>
       <c r="H9" t="n">
-        <v>1889.9319512316</v>
+        <v>4980.5506917747</v>
       </c>
       <c r="I9" t="n">
-        <v>3897.41824401946</v>
+        <v>7477.42306529561</v>
       </c>
       <c r="J9" t="n">
-        <v>109.7714500862</v>
+        <v>106.8996774327</v>
       </c>
       <c r="K9" t="n">
-        <v>4427.9277868888</v>
+        <v>11577.0915314476</v>
       </c>
       <c r="L9" t="n">
-        <v>20267.2289028058</v>
+        <v>31503.4694808951</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9533047731</v>
+        <v>102.7970182008</v>
       </c>
       <c r="N9" t="n">
-        <v>16068.6203025761</v>
+        <v>29361.1880922378</v>
       </c>
       <c r="O9" t="n">
-        <v>2733.11593540289</v>
+        <v>3725.52812421346</v>
       </c>
       <c r="P9" t="n">
-        <v>103.1652078405</v>
+        <v>102.1284141786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27679.9381683511</v>
+        <v>61452.5952336912</v>
       </c>
       <c r="C10" t="n">
-        <v>763.894551828743</v>
+        <v>1186.77331012979</v>
       </c>
       <c r="D10" t="n">
-        <v>104.5698156374</v>
+        <v>103.889786326</v>
       </c>
       <c r="E10" t="n">
-        <v>57420.7657589571</v>
+        <v>113579.530142808</v>
       </c>
       <c r="F10" t="n">
-        <v>1207.49051372601</v>
+        <v>1815.53134189362</v>
       </c>
       <c r="G10" t="n">
-        <v>105.6294505969</v>
+        <v>103.4815259845</v>
       </c>
       <c r="H10" t="n">
-        <v>2180.3061686059</v>
+        <v>5432.6101717776</v>
       </c>
       <c r="I10" t="n">
-        <v>4208.71477819585</v>
+        <v>7965.15093894328</v>
       </c>
       <c r="J10" t="n">
-        <v>107.9872498841</v>
+        <v>106.5226732444</v>
       </c>
       <c r="K10" t="n">
-        <v>5137.5305191736</v>
+        <v>12131.5065867479</v>
       </c>
       <c r="L10" t="n">
-        <v>21434.8176192372</v>
+        <v>32354.7869937709</v>
       </c>
       <c r="M10" t="n">
-        <v>105.7609687147</v>
+        <v>102.7022976418</v>
       </c>
       <c r="N10" t="n">
-        <v>20354.1954318075</v>
+        <v>28697.4021024613</v>
       </c>
       <c r="O10" t="n">
-        <v>2915.60597561632</v>
+        <v>3787.95731056421</v>
       </c>
       <c r="P10" t="n">
-        <v>106.6769959463</v>
+        <v>101.6757137316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29983.8113368487</v>
+        <v>66066.4506213608</v>
       </c>
       <c r="C11" t="n">
-        <v>790.022945919289</v>
+        <v>1240.85550677597</v>
       </c>
       <c r="D11" t="n">
-        <v>103.4248975659</v>
+        <v>104.5570789455</v>
       </c>
       <c r="E11" t="n">
-        <v>59311.3248106209</v>
+        <v>123967.935276604</v>
       </c>
       <c r="F11" t="n">
-        <v>1262.66688411147</v>
+        <v>1867.06783416495</v>
       </c>
       <c r="G11" t="n">
-        <v>104.5695075662</v>
+        <v>102.8386451438</v>
       </c>
       <c r="H11" t="n">
-        <v>2324.3943031656</v>
+        <v>5775.7059359408</v>
       </c>
       <c r="I11" t="n">
-        <v>4488.64747535473</v>
+        <v>8382.11140093219</v>
       </c>
       <c r="J11" t="n">
-        <v>106.6512631982</v>
+        <v>105.2348092985</v>
       </c>
       <c r="K11" t="n">
-        <v>5514.7247529502</v>
+        <v>12572.4037637657</v>
       </c>
       <c r="L11" t="n">
-        <v>22629.8734973958</v>
+        <v>33167.3720611854</v>
       </c>
       <c r="M11" t="n">
-        <v>105.5753022927</v>
+        <v>102.5114832855</v>
       </c>
       <c r="N11" t="n">
-        <v>19184.6343521907</v>
+        <v>33064.3456836352</v>
       </c>
       <c r="O11" t="n">
-        <v>3077.15266449677</v>
+        <v>3708.54467164936</v>
       </c>
       <c r="P11" t="n">
-        <v>105.5407586015</v>
+        <v>97.90354979200001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35909.066184359</v>
-      </c>
-      <c r="C12" t="n">
-        <v>823.624845448363</v>
-      </c>
+        <v>71748.2254540015</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>104.2594595475</v>
+        <v>104.09164840146</v>
       </c>
       <c r="E12" t="n">
-        <v>67763.1342742221</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1317.96717446402</v>
-      </c>
+        <v>137782.166785222</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>104.3795692088</v>
+        <v>103.435497795631</v>
       </c>
       <c r="H12" t="n">
-        <v>2575.0341446145</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4647.72679542164</v>
-      </c>
+        <v>5961.57937140716</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>103.5441720265</v>
+        <v>104.263116650387</v>
       </c>
       <c r="K12" t="n">
-        <v>6263.3705577147</v>
-      </c>
-      <c r="L12" t="n">
-        <v>23861.2602496849</v>
-      </c>
+        <v>12775.8571075287</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>105.4412916626</v>
+        <v>102.175293706048</v>
       </c>
       <c r="N12" t="n">
-        <v>20461.0770138634</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3204.87585242068</v>
-      </c>
+        <v>40266.6717859749</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>104.160198719</v>
+        <v>102.006452139846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40339.6228439432</v>
-      </c>
-      <c r="C13" t="n">
-        <v>869.713187210453</v>
-      </c>
+        <v>78339.509921</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>105.5536057076</v>
+        <v>104.544028912727</v>
       </c>
       <c r="E13" t="n">
-        <v>78836.9774171036</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1376.14513448287</v>
-      </c>
+        <v>147013.399712</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>104.4129472774</v>
+        <v>107.896764806605</v>
       </c>
       <c r="H13" t="n">
-        <v>3092.4388015974</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4998.78701806787</v>
-      </c>
+        <v>6507.704497</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>107.5533747593</v>
+        <v>104.401511583513</v>
       </c>
       <c r="K13" t="n">
-        <v>7337.3725208208</v>
-      </c>
-      <c r="L13" t="n">
-        <v>24866.510843058</v>
-      </c>
+        <v>14507.269489</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>104.1330689351</v>
+        <v>104.137615433721</v>
       </c>
       <c r="N13" t="n">
-        <v>25194.1631377629</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3260.98950622829</v>
-      </c>
+        <v>39910.834669</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>101.7312885283</v>
+        <v>115.618672915042</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44845.7211624986</v>
-      </c>
-      <c r="C14" t="n">
-        <v>907.659707713774</v>
-      </c>
-      <c r="D14" t="n">
-        <v>104.3375055819</v>
-      </c>
+        <v>84438.5752420952</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>86342.15223565089</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1443.5486206702</v>
-      </c>
+        <v>156065.936589842</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>104.8948401069</v>
+        <v>104.429649489232</v>
       </c>
       <c r="H14" t="n">
-        <v>3406.9708595033</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5335.33950210513</v>
-      </c>
-      <c r="J14" t="n">
-        <v>106.7326830053</v>
-      </c>
+        <v>6820.82660979333</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>8403.914821108099</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26128.734533005</v>
-      </c>
-      <c r="M14" t="n">
-        <v>105.0487406758</v>
-      </c>
+        <v>15467.9804822825</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>26491.2089136203</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3432.00746639239</v>
-      </c>
-      <c r="P14" t="n">
-        <v>105.2364195342</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>48943.9377789757</v>
-      </c>
-      <c r="C15" t="n">
-        <v>947.218792352043</v>
-      </c>
-      <c r="D15" t="n">
-        <v>104.3613621229</v>
-      </c>
-      <c r="E15" t="n">
-        <v>93173.6998567531</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1500.73893704516</v>
-      </c>
-      <c r="G15" t="n">
-        <v>103.9619260305</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3847.4385215052</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5727.72960297866</v>
-      </c>
-      <c r="J15" t="n">
-        <v>107.3545479293</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9254.478650548001</v>
-      </c>
-      <c r="L15" t="n">
-        <v>27455.6443562406</v>
-      </c>
-      <c r="M15" t="n">
-        <v>105.0783547192</v>
-      </c>
-      <c r="N15" t="n">
-        <v>27572.3688554741</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3502.26592336328</v>
-      </c>
-      <c r="P15" t="n">
-        <v>102.0471533835</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>51851.1221601811</v>
-      </c>
-      <c r="C16" t="n">
-        <v>993.608673755368</v>
-      </c>
-      <c r="D16" t="n">
-        <v>104.8894160447</v>
-      </c>
-      <c r="E16" t="n">
-        <v>97822.5134327064</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1565.59036063015</v>
-      </c>
-      <c r="G16" t="n">
-        <v>104.3238770402</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4189.9817200735</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6094.70343250596</v>
-      </c>
-      <c r="J16" t="n">
-        <v>106.4069684668</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9877.5369605835</v>
-      </c>
-      <c r="L16" t="n">
-        <v>28547.70102725</v>
-      </c>
-      <c r="M16" t="n">
-        <v>103.9775306558</v>
-      </c>
-      <c r="N16" t="n">
-        <v>27963.3867736564</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3591.85054614156</v>
-      </c>
-      <c r="P16" t="n">
-        <v>102.5579046463</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>54205.3353679747</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1047.2047281377</v>
-      </c>
-      <c r="D17" t="n">
-        <v>105.3882949725</v>
-      </c>
-      <c r="E17" t="n">
-        <v>101893.524993133</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1628.96584806297</v>
-      </c>
-      <c r="G17" t="n">
-        <v>104.0480248874</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4358.4466638654</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6466.46259211042</v>
-      </c>
-      <c r="J17" t="n">
-        <v>106.0997087672</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10339.0869281111</v>
-      </c>
-      <c r="L17" t="n">
-        <v>29784.4145635802</v>
-      </c>
-      <c r="M17" t="n">
-        <v>104.321971045</v>
-      </c>
-      <c r="N17" t="n">
-        <v>28649.320296726</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3608.74054576763</v>
-      </c>
-      <c r="P17" t="n">
-        <v>100.4655106777</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>55659.890664895</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1091.46493180057</v>
-      </c>
-      <c r="D18" t="n">
-        <v>104.2265091508</v>
-      </c>
-      <c r="E18" t="n">
-        <v>106478.728473906</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1686.77554787596</v>
-      </c>
-      <c r="G18" t="n">
-        <v>103.5488589206</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4635.8976656582</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6994.80414242043</v>
-      </c>
-      <c r="J18" t="n">
-        <v>108.170488003</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10892.918356963</v>
-      </c>
-      <c r="L18" t="n">
-        <v>30646.2872486935</v>
-      </c>
-      <c r="M18" t="n">
-        <v>102.893703629</v>
-      </c>
-      <c r="N18" t="n">
-        <v>30461.1666349107</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3647.88600134251</v>
-      </c>
-      <c r="P18" t="n">
-        <v>101.0847400936</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>58059.7579380087</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1142.33877275047</v>
-      </c>
-      <c r="D19" t="n">
-        <v>104.661060513</v>
-      </c>
-      <c r="E19" t="n">
-        <v>109331.720900485</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1754.44971904071</v>
-      </c>
-      <c r="G19" t="n">
-        <v>103.9758721022</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4980.5506917747</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7477.42306529561</v>
-      </c>
-      <c r="J19" t="n">
-        <v>106.8996774327</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11577.0915314476</v>
-      </c>
-      <c r="L19" t="n">
-        <v>31503.4694808951</v>
-      </c>
-      <c r="M19" t="n">
-        <v>102.7970182008</v>
-      </c>
-      <c r="N19" t="n">
-        <v>29361.1880922378</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3725.52812421346</v>
-      </c>
-      <c r="P19" t="n">
-        <v>102.1284141786</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>61452.5952336912</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1186.77331012979</v>
-      </c>
-      <c r="D20" t="n">
-        <v>103.889786326</v>
-      </c>
-      <c r="E20" t="n">
-        <v>113579.530142808</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1815.53134189362</v>
-      </c>
-      <c r="G20" t="n">
-        <v>103.4815259845</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5432.6101717776</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7965.15093894328</v>
-      </c>
-      <c r="J20" t="n">
-        <v>106.5226732444</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12131.5065867479</v>
-      </c>
-      <c r="L20" t="n">
-        <v>32354.7869937709</v>
-      </c>
-      <c r="M20" t="n">
-        <v>102.7022976418</v>
-      </c>
-      <c r="N20" t="n">
-        <v>28697.4021024613</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3787.95731056421</v>
-      </c>
-      <c r="P20" t="n">
-        <v>101.6757137316</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>66066.4506213608</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1240.85550677597</v>
-      </c>
-      <c r="D21" t="n">
-        <v>104.5570789455</v>
-      </c>
-      <c r="E21" t="n">
-        <v>123967.935276604</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1867.06783416495</v>
-      </c>
-      <c r="G21" t="n">
-        <v>102.8386451438</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5775.7059359408</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8382.11140093219</v>
-      </c>
-      <c r="J21" t="n">
-        <v>105.2348092985</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12572.4037637657</v>
-      </c>
-      <c r="L21" t="n">
-        <v>33167.3720611854</v>
-      </c>
-      <c r="M21" t="n">
-        <v>102.5114832855</v>
-      </c>
-      <c r="N21" t="n">
-        <v>33064.3456836352</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3708.54467164936</v>
-      </c>
-      <c r="P21" t="n">
-        <v>97.90354979200001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>71748.2254540015</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>104.09164840146</v>
-      </c>
-      <c r="E22" t="n">
-        <v>137782.166785222</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>103.435497795631</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5961.57937140716</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>104.263116650387</v>
-      </c>
-      <c r="K22" t="n">
-        <v>12775.8571075287</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>102.175293706048</v>
-      </c>
-      <c r="N22" t="n">
-        <v>40266.6717859749</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>102.006452139846</v>
-      </c>
+        <v>40652.3589657256</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
